--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -196,10 +196,10 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -476,49 +476,58 @@
         <v>2026</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>62</v>
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">C6*B6</f>
-        <v>16120</v>
+        <v>17050</v>
       </c>
       <c r="E6" s="3" t="n">
+        <f aca="false">D6</f>
         <v>17050</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>345</v>
+        <f aca="false">F5*1.05</f>
+        <v>362.25</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>1147.48</v>
+        <f aca="false">G5*1.05</f>
+        <v>1204.854</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>8460</v>
+        <f aca="false">H5*1.05</f>
+        <v>8883</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>24</v>
+        <f aca="false">I5*1.05</f>
+        <v>25.2</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>4800</v>
+        <f aca="false">J5*1.05</f>
+        <v>5040</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>100</v>
+        <f aca="false">K5*1.05</f>
+        <v>105</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>60</v>
+        <f aca="false">L5*1.05</f>
+        <v>63</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>700</v>
+        <f aca="false">M5*1.05</f>
+        <v>735</v>
       </c>
       <c r="N6" s="3" t="n">
         <f aca="false">SUM(F6:M6)</f>
-        <v>15636.48</v>
+        <v>16418.304</v>
       </c>
       <c r="O6" s="3" t="n">
         <f aca="false">D6-N6</f>
-        <v>483.52</v>
+        <v>631.696</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>0.0289</v>

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -196,10 +196,10 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -323,31 +323,31 @@
         <v>17050</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>17256</v>
+        <v>16585.35</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>320</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>1139.88</v>
+        <v>1147.48</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>8460</v>
+        <v>8514.99</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>4800</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>500</v>
+        <v>62.5</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>350</v>
+        <v>793</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>15569.88</v>
@@ -380,28 +380,28 @@
         <v>17156</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>1147.48</v>
+        <v>1199.5</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>8460</v>
+        <v>9382.6</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>24</v>
+        <v>696</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>4800</v>
+        <v>5640</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>60</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>700</v>
+        <v>15.6</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>15636.48</v>
@@ -432,31 +432,31 @@
       </c>
       <c r="E5" s="3" t="n">
         <f aca="false">E3</f>
-        <v>17256</v>
+        <v>16585.35</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>1147.48</v>
+        <v>1307.49</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>8460</v>
+        <v>8726.34</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>4800</v>
+        <v>4920</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>60</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>15636.48</v>
@@ -491,27 +491,27 @@
       </c>
       <c r="F6" s="3" t="n">
         <f aca="false">F5*1.05</f>
-        <v>362.25</v>
+        <v>341.25</v>
       </c>
       <c r="G6" s="3" t="n">
         <f aca="false">G5*1.05</f>
-        <v>1204.854</v>
+        <v>1372.8645</v>
       </c>
       <c r="H6" s="3" t="n">
         <f aca="false">H5*1.05</f>
-        <v>8883</v>
+        <v>9162.657</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">I5*1.05</f>
-        <v>25.2</v>
+        <v>525</v>
       </c>
       <c r="J6" s="3" t="n">
         <f aca="false">J5*1.05</f>
-        <v>5040</v>
+        <v>5166</v>
       </c>
       <c r="K6" s="3" t="n">
         <f aca="false">K5*1.05</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
         <f aca="false">L5*1.05</f>
@@ -519,15 +519,15 @@
       </c>
       <c r="M6" s="3" t="n">
         <f aca="false">M5*1.05</f>
-        <v>735</v>
+        <v>367.5</v>
       </c>
       <c r="N6" s="3" t="n">
         <f aca="false">SUM(F6:M6)</f>
-        <v>16418.304</v>
+        <v>16998.2715</v>
       </c>
       <c r="O6" s="3" t="n">
         <f aca="false">D6-N6</f>
-        <v>631.696</v>
+        <v>51.7284999999974</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>0.0289</v>

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -196,10 +196,10 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -431,38 +431,39 @@
         <v>18600</v>
       </c>
       <c r="E5" s="3" t="n">
-        <f aca="false">E3</f>
-        <v>16585.35</v>
+        <v>19049.81</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>1307.49</v>
+        <v>1198.56</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>8726.34</v>
+        <v>7999.2</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>500</v>
+        <v>458.37</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>4920</v>
+        <v>4510</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0</v>
+        <v>79.95</v>
       </c>
       <c r="L5" s="3" t="n">
         <v>60</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>350</v>
+        <v>329.13</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>15636.48</v>
+        <f aca="false">SUM(F5:M5)</f>
+        <v>15045.21</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>1519.52</v>
+        <f aca="false">E5-N5</f>
+        <v>4004.6</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>0.0289</v>
@@ -491,27 +492,27 @@
       </c>
       <c r="F6" s="3" t="n">
         <f aca="false">F5*1.05</f>
-        <v>341.25</v>
+        <v>430.5</v>
       </c>
       <c r="G6" s="3" t="n">
         <f aca="false">G5*1.05</f>
-        <v>1372.8645</v>
+        <v>1258.488</v>
       </c>
       <c r="H6" s="3" t="n">
         <f aca="false">H5*1.05</f>
-        <v>9162.657</v>
+        <v>8399.16</v>
       </c>
       <c r="I6" s="3" t="n">
         <f aca="false">I5*1.05</f>
-        <v>525</v>
+        <v>481.2885</v>
       </c>
       <c r="J6" s="3" t="n">
         <f aca="false">J5*1.05</f>
-        <v>5166</v>
+        <v>4735.5</v>
       </c>
       <c r="K6" s="3" t="n">
         <f aca="false">K5*1.05</f>
-        <v>0</v>
+        <v>83.9475</v>
       </c>
       <c r="L6" s="3" t="n">
         <f aca="false">L5*1.05</f>
@@ -519,15 +520,15 @@
       </c>
       <c r="M6" s="3" t="n">
         <f aca="false">M5*1.05</f>
-        <v>367.5</v>
+        <v>345.5865</v>
       </c>
       <c r="N6" s="3" t="n">
         <f aca="false">SUM(F6:M6)</f>
-        <v>16998.2715</v>
+        <v>15797.4705</v>
       </c>
       <c r="O6" s="3" t="n">
         <f aca="false">D6-N6</f>
-        <v>51.7284999999974</v>
+        <v>1252.5295</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>0.0289</v>
